--- a/detectors/sketch/dataset/dataset.xlsx
+++ b/detectors/sketch/dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nl2sql\detectors\sketch\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96102C4-E9C1-4130-818D-AB6931007616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5A2896-02A3-421E-BB88-96565CD47C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,12 +74,6 @@
     <t>lihat daftar semua mata_kuliah yang terdaftar</t>
   </si>
   <si>
-    <t>db_akademik_1.json</t>
-  </si>
-  <si>
-    <t>db_akuntansi_1.json</t>
-  </si>
-  <si>
     <t>tampilkan semua data dari tabel akun</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>perlihatkan data lengkap dari buku_besar</t>
   </si>
   <si>
-    <t>db_hotel_1.json</t>
-  </si>
-  <si>
     <t>tampilkan semua data dari tabel pelanggan</t>
   </si>
   <si>
@@ -173,12 +164,6 @@
     <t>lihat data lengkap yang ada di tabel kategori</t>
   </si>
   <si>
-    <t>db_inventori_1.json</t>
-  </si>
-  <si>
-    <t>db_kepegawaian_1.json</t>
-  </si>
-  <si>
     <t>tampilkan semua data dari pegawai</t>
   </si>
   <si>
@@ -209,9 +194,6 @@
     <t>lihat seluruh data gaji bulanan</t>
   </si>
   <si>
-    <t>db_pemesanan_1.json</t>
-  </si>
-  <si>
     <t>tampilkan semua data pelanggan</t>
   </si>
   <si>
@@ -242,9 +224,6 @@
     <t>tampilkan data lengkap dari produk</t>
   </si>
   <si>
-    <t>db_penjualan_1.json</t>
-  </si>
-  <si>
     <t>ambil semua informasi dari tabel produk</t>
   </si>
   <si>
@@ -1287,6 +1266,27 @@
   </si>
   <si>
     <t>cari rata-rata harga dari produk group by id_produk dimana harga kurang dari 75000</t>
+  </si>
+  <si>
+    <t>akademik_1.json</t>
+  </si>
+  <si>
+    <t>akuntansi_1.json</t>
+  </si>
+  <si>
+    <t>hotel_1.json</t>
+  </si>
+  <si>
+    <t>inventori_1.json</t>
+  </si>
+  <si>
+    <t>kepegawaian_1.json</t>
+  </si>
+  <si>
+    <t>pemesanan_1.json</t>
+  </si>
+  <si>
+    <t>penjualan_1.json</t>
   </si>
 </sst>
 </file>
@@ -33618,8 +33618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="E416" sqref="E416"/>
+    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
+      <selection activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33683,7 +33683,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33697,7 +33697,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33711,7 +33711,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33725,7 +33725,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33739,7 +33739,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33753,7 +33753,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33767,7 +33767,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33781,7 +33781,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33795,7 +33795,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33809,7 +33809,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33820,10 +33820,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33834,10 +33834,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33848,10 +33848,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33862,10 +33862,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33876,10 +33876,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33890,10 +33890,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33904,10 +33904,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33918,10 +33918,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33932,10 +33932,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33946,10 +33946,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33960,10 +33960,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33974,10 +33974,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -33988,10 +33988,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34002,10 +34002,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34016,10 +34016,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34030,10 +34030,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34044,10 +34044,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34058,10 +34058,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34072,10 +34072,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34086,10 +34086,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34100,10 +34100,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34114,10 +34114,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34128,10 +34128,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34142,10 +34142,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34156,10 +34156,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34170,10 +34170,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34184,10 +34184,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34198,10 +34198,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34212,10 +34212,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34226,10 +34226,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34240,10 +34240,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34254,10 +34254,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34268,10 +34268,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34282,10 +34282,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34296,10 +34296,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34310,10 +34310,10 @@
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34324,10 +34324,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34338,10 +34338,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34352,10 +34352,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34366,10 +34366,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34380,10 +34380,10 @@
         <v>6</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34394,10 +34394,10 @@
         <v>6</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34408,10 +34408,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34422,10 +34422,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34436,10 +34436,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34450,10 +34450,10 @@
         <v>6</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34464,10 +34464,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34478,10 +34478,10 @@
         <v>6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34492,10 +34492,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34506,10 +34506,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34520,10 +34520,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34534,10 +34534,10 @@
         <v>6</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34548,10 +34548,10 @@
         <v>6</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34562,10 +34562,10 @@
         <v>6</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34576,10 +34576,10 @@
         <v>6</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34590,10 +34590,10 @@
         <v>6</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34604,10 +34604,10 @@
         <v>6</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34618,10 +34618,10 @@
         <v>6</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34632,10 +34632,10 @@
         <v>6</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34646,10 +34646,10 @@
         <v>6</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34657,13 +34657,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34671,13 +34671,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34685,13 +34685,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34699,13 +34699,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34713,13 +34713,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34727,13 +34727,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34741,13 +34741,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34755,13 +34755,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34769,13 +34769,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34783,13 +34783,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34797,13 +34797,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34811,13 +34811,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34825,13 +34825,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34839,13 +34839,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34853,13 +34853,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34867,13 +34867,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34881,13 +34881,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34895,13 +34895,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34909,13 +34909,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34923,13 +34923,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34937,13 +34937,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34951,13 +34951,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34965,13 +34965,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34979,13 +34979,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34993,13 +34993,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35007,13 +35007,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35021,13 +35021,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35035,13 +35035,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D99" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35049,13 +35049,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35063,13 +35063,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35077,13 +35077,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D102" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35091,13 +35091,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D103" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35105,13 +35105,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D104" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35119,13 +35119,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D105" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35133,13 +35133,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D106" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35147,13 +35147,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D107" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35161,13 +35161,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35175,13 +35175,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D109" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35189,13 +35189,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D110" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35203,13 +35203,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D111" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35217,13 +35217,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D112" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35231,13 +35231,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D113" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35245,13 +35245,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D114" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35259,13 +35259,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35273,13 +35273,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35287,13 +35287,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D117" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35301,13 +35301,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D118" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35315,13 +35315,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35329,13 +35329,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35343,13 +35343,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D121" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35357,13 +35357,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35371,13 +35371,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35385,13 +35385,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D124" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35399,13 +35399,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D125" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35413,13 +35413,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D126" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35427,13 +35427,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D127" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35441,13 +35441,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D128" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35455,13 +35455,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D129" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35469,13 +35469,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D130" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35483,13 +35483,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D131" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35497,13 +35497,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D132" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35511,13 +35511,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D133" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35525,13 +35525,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D134" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35539,13 +35539,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D135" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35553,13 +35553,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D136" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35567,13 +35567,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D137" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35581,13 +35581,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D138" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35595,13 +35595,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35609,13 +35609,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D140" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35623,13 +35623,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D141" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35637,13 +35637,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D142" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35651,13 +35651,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D143" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35665,13 +35665,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35679,13 +35679,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D145" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35693,13 +35693,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35707,13 +35707,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35721,13 +35721,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35735,13 +35735,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35749,13 +35749,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D150" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35763,13 +35763,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D151" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35777,13 +35777,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35791,13 +35791,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35805,13 +35805,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D154" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35819,13 +35819,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D155" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35833,13 +35833,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35847,13 +35847,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35861,13 +35861,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35875,13 +35875,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35889,13 +35889,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35903,13 +35903,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C161" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D161" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35917,13 +35917,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C162" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D162" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35931,13 +35931,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C163" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D163" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35945,13 +35945,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D164" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35959,13 +35959,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D165" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35973,13 +35973,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35987,13 +35987,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C167" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D167" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36001,13 +36001,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C168" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D168" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36015,13 +36015,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C169" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36029,13 +36029,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C170" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36043,13 +36043,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C171" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D171" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36057,13 +36057,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D172" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36071,13 +36071,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D173" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36085,13 +36085,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C174" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D174" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36099,13 +36099,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D175" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36113,13 +36113,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D176" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36127,13 +36127,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D177" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36141,13 +36141,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C178" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D178" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36155,13 +36155,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C179" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D179" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36169,13 +36169,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C180" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D180" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36183,13 +36183,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C181" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D181" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36197,13 +36197,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C182" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D182" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36211,13 +36211,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C183" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D183" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36225,13 +36225,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C184" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D184" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36239,13 +36239,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C185" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D185" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36253,13 +36253,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C186" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D186" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36267,13 +36267,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C187" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D187" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36281,13 +36281,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C188" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D188" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36295,13 +36295,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C189" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D189" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36309,13 +36309,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C190" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D190" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36323,13 +36323,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C191" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D191" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36337,13 +36337,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D192" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36351,13 +36351,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C193" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D193" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36365,13 +36365,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C194" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D194" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36379,13 +36379,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C195" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D195" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36393,13 +36393,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C196" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D196" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36407,13 +36407,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C197" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D197" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36421,13 +36421,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C198" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D198" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36435,13 +36435,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C199" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D199" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36449,13 +36449,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C200" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D200" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36463,13 +36463,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C201" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D201" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36477,13 +36477,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C202" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D202" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36491,13 +36491,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C203" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D203" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36505,13 +36505,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C204" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D204" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36519,13 +36519,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C205" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D205" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36533,13 +36533,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C206" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D206" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36547,13 +36547,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C207" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D207" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36561,13 +36561,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C208" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D208" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36575,13 +36575,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C209" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D209" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36589,13 +36589,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C210" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D210" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36603,13 +36603,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C211" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D211" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36617,13 +36617,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C212" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D212" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36631,13 +36631,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D213" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36645,13 +36645,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D214" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36659,13 +36659,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D215" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36673,13 +36673,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C216" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D216" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36687,13 +36687,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D217" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36701,13 +36701,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
+        <v>216</v>
+      </c>
+      <c r="C218" t="s">
         <v>223</v>
       </c>
-      <c r="C218" t="s">
-        <v>230</v>
-      </c>
       <c r="D218" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36715,13 +36715,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C219" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D219" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36729,13 +36729,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C220" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D220" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36743,13 +36743,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C221" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D221" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36757,13 +36757,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C222" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D222" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36771,13 +36771,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C223" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D223" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36785,13 +36785,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C224" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D224" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36799,13 +36799,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C225" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36813,13 +36813,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C226" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D226" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36827,13 +36827,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C227" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36841,13 +36841,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C228" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D228" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36855,13 +36855,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C229" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D229" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36869,13 +36869,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C230" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D230" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36883,13 +36883,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C231" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D231" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36897,13 +36897,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C232" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36911,13 +36911,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C233" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36925,13 +36925,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C234" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36939,13 +36939,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C235" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36953,13 +36953,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C236" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36967,13 +36967,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C237" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36981,13 +36981,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C238" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36995,13 +36995,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C239" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37009,13 +37009,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C240" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D240" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37023,13 +37023,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C241" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37037,13 +37037,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C242" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D242" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37051,13 +37051,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D243" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37065,13 +37065,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C244" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D244" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37079,13 +37079,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C245" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D245" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37093,13 +37093,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C246" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D246" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37107,13 +37107,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C247" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D247" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37121,13 +37121,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C248" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D248" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37135,13 +37135,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C249" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D249" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37149,13 +37149,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C250" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D250" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37163,13 +37163,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C251" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D251" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37177,13 +37177,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C252" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D252" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37191,13 +37191,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C253" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D253" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37205,13 +37205,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C254" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D254" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37219,13 +37219,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C255" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D255" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37233,13 +37233,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C256" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D256" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37247,13 +37247,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C257" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D257" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37261,13 +37261,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C258" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D258" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37275,13 +37275,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C259" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D259" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37289,13 +37289,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C260" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D260" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37303,13 +37303,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C261" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D261" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37317,13 +37317,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C262" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D262" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37331,13 +37331,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C263" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D263" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37345,13 +37345,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C264" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D264" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37359,13 +37359,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C265" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D265" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37373,13 +37373,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C266" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D266" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37387,13 +37387,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C267" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D267" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37401,13 +37401,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C268" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D268" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37415,13 +37415,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C269" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D269" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37429,13 +37429,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C270" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D270" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37443,13 +37443,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C271" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D271" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37457,13 +37457,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C272" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D272" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37471,13 +37471,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C273" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D273" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37485,13 +37485,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C274" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D274" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37499,13 +37499,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C275" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D275" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37513,13 +37513,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C276" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D276" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37527,13 +37527,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C277" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D277" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37541,13 +37541,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C278" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D278" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37555,13 +37555,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C279" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D279" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37569,13 +37569,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C280" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D280" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37583,13 +37583,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C281" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D281" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37597,13 +37597,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C282" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D282" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37611,13 +37611,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C283" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D283" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37625,13 +37625,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C284" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D284" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37639,13 +37639,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C285" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D285" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37653,13 +37653,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C286" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D286" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37667,13 +37667,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C287" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D287" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37681,13 +37681,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
+        <v>277</v>
+      </c>
+      <c r="C288" t="s">
         <v>284</v>
       </c>
-      <c r="C288" t="s">
-        <v>291</v>
-      </c>
       <c r="D288" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37695,13 +37695,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C289" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D289" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37709,13 +37709,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C290" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D290" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37723,13 +37723,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C291" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D291" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37737,13 +37737,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C292" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D292" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37751,13 +37751,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C293" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D293" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37765,13 +37765,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C294" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D294" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37779,13 +37779,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C295" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D295" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37793,13 +37793,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C296" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D296" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37807,13 +37807,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C297" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D297" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37821,13 +37821,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C298" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D298" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37835,13 +37835,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C299" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D299" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37849,13 +37849,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C300" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D300" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37863,13 +37863,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C301" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D301" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37877,13 +37877,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C302" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37891,13 +37891,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C303" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D303" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37905,13 +37905,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C304" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D304" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37919,13 +37919,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C305" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D305" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37933,13 +37933,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C306" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D306" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37947,13 +37947,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C307" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D307" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37961,13 +37961,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C308" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D308" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37975,13 +37975,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C309" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -37989,13 +37989,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C310" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D310" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38003,13 +38003,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C311" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D311" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38017,13 +38017,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C312" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D312" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38031,13 +38031,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C313" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D313" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38045,13 +38045,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C314" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D314" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38059,13 +38059,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C315" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D315" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38073,13 +38073,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C316" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D316" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38087,13 +38087,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C317" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D317" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38101,13 +38101,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C318" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D318" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38115,13 +38115,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C319" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D319" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38129,13 +38129,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C320" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D320" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38143,13 +38143,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C321" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D321" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38157,13 +38157,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C322" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D322" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38171,13 +38171,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C323" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D323" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38185,13 +38185,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C324" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D324" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38199,13 +38199,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C325" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D325" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38213,13 +38213,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C326" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D326" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38227,13 +38227,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C327" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D327" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38241,13 +38241,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C328" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D328" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38255,13 +38255,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C329" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D329" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38269,13 +38269,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C330" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D330" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38283,13 +38283,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C331" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D331" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38297,13 +38297,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C332" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D332" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38311,13 +38311,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C333" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D333" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38325,13 +38325,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C334" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D334" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38339,13 +38339,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C335" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D335" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38353,13 +38353,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C336" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D336" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38367,13 +38367,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C337" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D337" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38381,13 +38381,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C338" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D338" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38395,13 +38395,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C339" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D339" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38409,13 +38409,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C340" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D340" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38423,13 +38423,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C341" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D341" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38437,13 +38437,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C342" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D342" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38451,13 +38451,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C343" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D343" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38465,13 +38465,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C344" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D344" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38479,13 +38479,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C345" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D345" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38493,13 +38493,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C346" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D346" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38507,13 +38507,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C347" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D347" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38521,13 +38521,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C348" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D348" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38535,13 +38535,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C349" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D349" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38549,13 +38549,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C350" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D350" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38563,13 +38563,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C351" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D351" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38577,13 +38577,13 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C352" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D352" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38591,13 +38591,13 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C353" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D353" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38605,13 +38605,13 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C354" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D354" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38619,13 +38619,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C355" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D355" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38633,13 +38633,13 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C356" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D356" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38647,13 +38647,13 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C357" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D357" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38661,13 +38661,13 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
+        <v>344</v>
+      </c>
+      <c r="C358" t="s">
         <v>351</v>
       </c>
-      <c r="C358" t="s">
-        <v>358</v>
-      </c>
       <c r="D358" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38675,13 +38675,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C359" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D359" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38689,13 +38689,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C360" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D360" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38703,13 +38703,13 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C361" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D361" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38717,13 +38717,13 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C362" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D362" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38731,13 +38731,13 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C363" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D363" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38745,13 +38745,13 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C364" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D364" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38759,13 +38759,13 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C365" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D365" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38773,13 +38773,13 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C366" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D366" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38787,13 +38787,13 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C367" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D367" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38801,13 +38801,13 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C368" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D368" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38815,13 +38815,13 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C369" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D369" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38829,13 +38829,13 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C370" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D370" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38843,13 +38843,13 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C371" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D371" t="s">
-        <v>18</v>
+        <v>416</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38857,13 +38857,13 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C372" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D372" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38871,13 +38871,13 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C373" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D373" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38885,13 +38885,13 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C374" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D374" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38899,13 +38899,13 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C375" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D375" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38913,13 +38913,13 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C376" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D376" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38927,13 +38927,13 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C377" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D377" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38941,13 +38941,13 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C378" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D378" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38955,13 +38955,13 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C379" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D379" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38969,13 +38969,13 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C380" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D380" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38983,13 +38983,13 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C381" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D381" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -38997,13 +38997,13 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C382" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D382" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39011,13 +39011,13 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C383" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D383" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39025,13 +39025,13 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C384" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D384" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39039,13 +39039,13 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C385" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D385" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39053,13 +39053,13 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C386" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D386" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39067,13 +39067,13 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C387" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D387" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39081,13 +39081,13 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C388" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D388" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39095,13 +39095,13 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C389" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D389" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39109,13 +39109,13 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C390" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D390" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39123,13 +39123,13 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C391" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D391" t="s">
-        <v>50</v>
+        <v>418</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39137,13 +39137,13 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C392" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D392" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39151,13 +39151,13 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C393" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D393" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39165,13 +39165,13 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C394" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D394" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39179,13 +39179,13 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C395" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D395" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39193,13 +39193,13 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C396" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D396" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39207,13 +39207,13 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C397" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D397" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39221,13 +39221,13 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C398" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D398" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39235,13 +39235,13 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C399" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D399" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39249,13 +39249,13 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C400" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D400" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39263,13 +39263,13 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C401" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D401" t="s">
-        <v>51</v>
+        <v>419</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39277,13 +39277,13 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C402" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D402" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39291,13 +39291,13 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C403" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D403" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39305,13 +39305,13 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C404" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D404" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39319,13 +39319,13 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C405" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="D405" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39333,13 +39333,13 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C406" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D406" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39347,13 +39347,13 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C407" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D407" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39361,13 +39361,13 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C408" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D408" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39375,13 +39375,13 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C409" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D409" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39389,13 +39389,13 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C410" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D410" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39403,13 +39403,13 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C411" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D411" t="s">
-        <v>62</v>
+        <v>420</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39417,13 +39417,13 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C412" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D412" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39431,13 +39431,13 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C413" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D413" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39445,13 +39445,13 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C414" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D414" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39459,13 +39459,13 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C415" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D415" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39473,13 +39473,13 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C416" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D416" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39487,13 +39487,13 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C417" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D417" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39501,13 +39501,13 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C418" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D418" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39515,13 +39515,13 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C419" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D419" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39529,13 +39529,13 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C420" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D420" t="s">
-        <v>73</v>
+        <v>421</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -39543,13 +39543,13 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C421" t="s">
+        <v>414</v>
+      </c>
+      <c r="D421" t="s">
         <v>421</v>
-      </c>
-      <c r="D421" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/detectors/sketch/dataset/dataset.xlsx
+++ b/detectors/sketch/dataset/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nl2sql\detectors\sketch\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5A2896-02A3-421E-BB88-96565CD47C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ABB6C1-CC57-4E9D-B028-A9721C401423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33618,8 +33618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" workbookViewId="0">
-      <selection activeCell="C420" sqref="C420"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
